--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4014.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4014.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.590396668652128</v>
+        <v>5.634463310241699</v>
       </c>
       <c r="B1">
-        <v>2.517735577619066</v>
+        <v>6.267955780029297</v>
       </c>
       <c r="C1">
-        <v>3.099384313971204</v>
+        <v>8.706923484802246</v>
       </c>
       <c r="D1">
-        <v>3.465673270435927</v>
+        <v>9.179832458496094</v>
       </c>
       <c r="E1">
-        <v>2.131328814534965</v>
+        <v>1.756473541259766</v>
       </c>
     </row>
   </sheetData>
